--- a/Income/PH_inc.xlsx
+++ b/Income/PH_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.2614</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2538</v>
+        <v>0.2533</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2517</v>
+        <v>0.2511</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2508</v>
+        <v>0.2503</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2493</v>
+        <v>0.2488</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2531</v>
@@ -2241,7 +2241,7 @@
         <v>0.1105</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1165</v>
+        <v>0.1164</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.1219</v>
@@ -3505,16 +3505,16 @@
         <v>0.1969</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.1869</v>
+        <v>0.1784</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.18</v>
+        <v>0.1715</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.175</v>
+        <v>0.1668</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1742</v>
+        <v>0.166</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.1743</v>
